--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_seurat_clusters_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_seurat_clusters_gene_ranking.xlsx
@@ -3781,7 +3781,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Apol7c</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Apol7c</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Tpd52</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Atxn1</t>
+          <t>Ikzf2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ikzf2</t>
+          <t>Atxn1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
